--- a/Data/results2.xlsx
+++ b/Data/results2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28516"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup laptop\Pelajaran Kuliah\Semester 7\Magang\NPSCategorization\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9166D5C-2B77-4CA9-8305-FCAF1634E165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E721A4-2945-4DE2-8996-59488E264D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
@@ -49,10 +49,28 @@
     <t>F1 Score</t>
   </si>
   <si>
+    <t>Ease and Speed</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
     <t>Features and Promotion</t>
   </si>
   <si>
-    <t>Logistic Regression</t>
+    <t>Fees and Rates</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>UI/UX and Usability</t>
   </si>
   <si>
     <t>Random Forest</t>
@@ -61,22 +79,10 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>Reliability</t>
+    <t>CountVectorizer without SMOTE</t>
   </si>
   <si>
-    <t>UI/UX and Usability</t>
-  </si>
-  <si>
-    <t>Fees and Rates</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Ease and Speed</t>
-  </si>
-  <si>
-    <t>General</t>
+    <t>CountVectorizer with SMOTE</t>
   </si>
   <si>
     <t>TFIDF with SMOTE</t>
@@ -85,17 +91,14 @@
     <t>TFIDF without SMOTE</t>
   </si>
   <si>
-    <t>CountVectorizer with SMOTE</t>
-  </si>
-  <si>
-    <t>CountVectorizer wihout SMOTE</t>
+    <t>The best combined technique and algorithm according accuracy: TFIDF without SMOTE and Logistic Regression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,12 +155,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -454,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,15 +479,15 @@
     <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,689 +506,1330 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.95286885245901642</v>
+        <v>0.96926229508196726</v>
       </c>
       <c r="D2">
-        <v>0.70731707317073167</v>
+        <v>0.82926829268292679</v>
       </c>
       <c r="E2">
-        <v>0.72499999999999998</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="F2">
-        <v>0.71604938271604945</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>0.95286885245901642</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2">
+        <v>0.8192771084337348</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0.96926229508196726</v>
+      </c>
+      <c r="D3">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="E3">
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="F3">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>0.96311475409836067</v>
+      </c>
+      <c r="K3">
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="L3">
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="M3">
+        <v>0.78571428571428581</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>0.96926229508196726</v>
+      </c>
+      <c r="R3">
+        <v>0.80487804878048785</v>
+      </c>
+      <c r="S3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.81481481481481488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>0.9651639344262295</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0.95081967213114749</v>
-      </c>
-      <c r="D3">
-        <v>0.73170731707317072</v>
-      </c>
-      <c r="E3">
-        <v>0.69767441860465118</v>
-      </c>
-      <c r="F3">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>0.93442622950819676</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3">
-        <v>0.93237704918032782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>0.94672131147540983</v>
-      </c>
       <c r="D4">
-        <v>0.70731707317073167</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="E4">
-        <v>0.67441860465116277</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F4">
-        <v>0.69047619047619035</v>
+        <v>0.79518072289156627</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>8</v>
+      <c r="J4">
+        <v>0.92213114754098358</v>
       </c>
       <c r="K4">
-        <v>0.90778688524590168</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4">
-        <v>0.92213114754098358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="L4">
+        <v>0.60465116279069764</v>
+      </c>
+      <c r="M4">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4">
+        <v>0.91393442622950816</v>
+      </c>
+      <c r="R4">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="S4">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="T4">
+        <v>0.55319148936170215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.93442622950819676</v>
+        <v>0.93032786885245899</v>
       </c>
       <c r="D5">
-        <v>0.8271604938271605</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E5">
-        <v>0.78823529411764703</v>
+        <v>0.79746835443037978</v>
       </c>
       <c r="F5">
-        <v>0.80722891566265054</v>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
       </c>
       <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>0.90573770491803274</v>
+      </c>
+      <c r="K5">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L5">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="M5">
+        <v>0.72289156626506035</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>0.92008196721311475</v>
+      </c>
+      <c r="R5">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="S5">
+        <v>0.75</v>
+      </c>
+      <c r="T5">
+        <v>0.76363636363636378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>0.89139344262295084</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.92008196721311475</v>
+      </c>
+      <c r="D6">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="E6">
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="F6">
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0.86885245901639341</v>
+      </c>
+      <c r="K6">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="L6">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="M6">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>0.87909836065573765</v>
+      </c>
+      <c r="R6">
+        <v>0.46551724137931028</v>
+      </c>
+      <c r="S6">
+        <v>0.49090909090909091</v>
+      </c>
+      <c r="T6">
+        <v>0.47787610619469018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.91598360655737709</v>
+      </c>
+      <c r="D7">
+        <v>0.76543209876543206</v>
+      </c>
+      <c r="E7">
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="F7">
+        <v>0.75151515151515147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>0.85450819672131151</v>
+      </c>
+      <c r="K7">
+        <v>0.31746031746031739</v>
+      </c>
+      <c r="L7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M7">
+        <v>0.36036036036036029</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <v>0.88319672131147542</v>
+      </c>
+      <c r="R7">
+        <v>0.36507936507936511</v>
+      </c>
+      <c r="S7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="T7">
+        <v>0.44660194174757278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="N5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <v>0.87295081967213117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.93032786885245899</v>
-      </c>
-      <c r="D6">
-        <v>0.79012345679012341</v>
-      </c>
-      <c r="E6">
-        <v>0.79012345679012341</v>
-      </c>
-      <c r="F6">
-        <v>0.79012345679012341</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>0.87704918032786883</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>0.88524590163934425</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.92008196721311475</v>
-      </c>
-      <c r="D7">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E7">
-        <v>0.75</v>
-      </c>
-      <c r="F7">
-        <v>0.76363636363636378</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7">
-        <v>0.88319672131147542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.90778688524590168</v>
+        <v>0.9098360655737705</v>
       </c>
       <c r="D8">
         <v>0.51063829787234039</v>
       </c>
       <c r="E8">
-        <v>0.52173913043478259</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F8">
-        <v>0.5161290322580645</v>
+        <v>0.52173913043478248</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
       </c>
       <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>0.87295081967213117</v>
+      </c>
+      <c r="K8">
+        <v>0.72881355932203384</v>
+      </c>
+      <c r="L8">
+        <v>0.74137931034482762</v>
+      </c>
+      <c r="M8">
+        <v>0.73504273504273498</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>0.87090163934426235</v>
+      </c>
+      <c r="R8">
+        <v>0.68644067796610164</v>
+      </c>
+      <c r="S8">
+        <v>0.7570093457943925</v>
+      </c>
+      <c r="T8">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.90368852459016391</v>
+      </c>
+      <c r="D9">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.5436893203883495</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>0.82991803278688525</v>
+      </c>
+      <c r="K9">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.48421052631578948</v>
+      </c>
+      <c r="M9">
+        <v>0.52571428571428569</v>
+      </c>
+      <c r="O9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>0.81352459016393441</v>
+      </c>
+      <c r="R9">
+        <v>0.65</v>
+      </c>
+      <c r="S9">
+        <v>0.45217391304347831</v>
+      </c>
+      <c r="T9">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.89959016393442626</v>
+      </c>
+      <c r="D10">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="E10">
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="F10">
+        <v>0.57391304347826089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0.89959016393442626</v>
+      </c>
+      <c r="D11">
+        <v>0.8271604938271605</v>
+      </c>
+      <c r="E11">
+        <v>0.65686274509803921</v>
+      </c>
+      <c r="F11">
+        <v>0.73224043715846987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0.87909836065573765</v>
+      </c>
+      <c r="D12">
+        <v>0.66101694915254239</v>
+      </c>
+      <c r="E12">
+        <v>0.80412371134020622</v>
+      </c>
+      <c r="F12">
+        <v>0.72558139534883725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0.87909836065573765</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.49152542372881358</v>
+      </c>
+      <c r="F13">
+        <v>0.49572649572649569</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.87704918032786883</v>
+      </c>
+      <c r="D14">
+        <v>0.69491525423728817</v>
+      </c>
+      <c r="E14">
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="F14">
+        <v>0.73214285714285732</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.875</v>
+      </c>
+      <c r="D15">
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="E15">
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="F15">
+        <v>0.49586776859504128</v>
+      </c>
+      <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="K8">
-        <v>0.83811475409836067</v>
-      </c>
-      <c r="M8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <v>0.85040983606557374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>0.96926229508196726</v>
+      </c>
+      <c r="K15">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="L15">
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="M15">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="O15" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>0.90778688524590168</v>
-      </c>
-      <c r="D9">
-        <v>0.51063829787234039</v>
-      </c>
-      <c r="E9">
-        <v>0.52173913043478259</v>
-      </c>
-      <c r="F9">
-        <v>0.5161290322580645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>0.96311475409836067</v>
+      </c>
+      <c r="R15">
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="S15">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="T15">
+        <v>0.76923076923076938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0.87295081967213117</v>
+      </c>
+      <c r="D16">
+        <v>0.41269841269841268</v>
+      </c>
+      <c r="E16">
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="F16">
+        <v>0.45614035087719301</v>
+      </c>
+      <c r="H16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.89139344262295084</v>
-      </c>
-      <c r="D10">
-        <v>0.48275862068965519</v>
-      </c>
-      <c r="E10">
-        <v>0.5490196078431373</v>
-      </c>
-      <c r="F10">
-        <v>0.51376146788990829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>0.92008196721311475</v>
+      </c>
+      <c r="K16">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="L16">
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="M16">
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="O16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.88524590163934425</v>
-      </c>
-      <c r="D11">
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="E11">
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="F11">
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0.88524590163934425</v>
-      </c>
-      <c r="D12">
-        <v>0.61702127659574468</v>
-      </c>
-      <c r="E12">
-        <v>0.43283582089552242</v>
-      </c>
-      <c r="F12">
-        <v>0.50877192982456132</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>0.96311475409836067</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12">
-        <v>0.97131147540983609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0.87704918032786883</v>
-      </c>
-      <c r="D13">
-        <v>0.76271186440677963</v>
-      </c>
-      <c r="E13">
-        <v>0.73770491803278693</v>
-      </c>
-      <c r="F13">
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>0.92418032786885251</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13">
-        <v>0.92008196721311475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0.875</v>
-      </c>
-      <c r="D14">
-        <v>0.40322580645161288</v>
-      </c>
-      <c r="E14">
-        <v>0.51020408163265307</v>
-      </c>
-      <c r="F14">
-        <v>0.45045045045045051</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14">
-        <v>0.91188524590163933</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14">
-        <v>0.91393442622950816</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>0.87295081967213117</v>
-      </c>
-      <c r="D15">
-        <v>0.66101694915254239</v>
-      </c>
-      <c r="E15">
-        <v>0.78</v>
-      </c>
-      <c r="F15">
-        <v>0.71559633027522929</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <v>0.88319672131147542</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15">
-        <v>0.87909836065573765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>0.86885245901639341</v>
-      </c>
-      <c r="D16">
-        <v>0.67241379310344829</v>
-      </c>
-      <c r="E16">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="F16">
-        <v>0.54929577464788726</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16">
-        <v>0.87909836065573765</v>
-      </c>
-      <c r="M16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16">
-        <v>0.88319672131147542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="R16">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="S16">
+        <v>0.53061224489795922</v>
+      </c>
+      <c r="T16">
+        <v>0.54166666666666674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>0.86475409836065575</v>
+        <v>0.86885245901639341</v>
       </c>
       <c r="D17">
-        <v>0.43548387096774188</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="E17">
-        <v>0.46551724137931028</v>
+        <v>0.44827586206896552</v>
       </c>
       <c r="F17">
-        <v>0.45</v>
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>0.91598360655737709</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
-      </c>
-      <c r="M17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17">
-        <v>0.88524590163934425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.76543209876543206</v>
+      </c>
+      <c r="L17">
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="M17">
+        <v>0.75151515151515147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>0.92418032786885251</v>
+      </c>
+      <c r="R17">
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="S17">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="T17">
+        <v>0.77575757575757565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.86680327868852458</v>
+      </c>
+      <c r="D18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18">
+        <v>0.47727272727272729</v>
+      </c>
+      <c r="F18">
+        <v>0.39252336448598141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>0.87909836065573765</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <v>0.49152542372881358</v>
+      </c>
+      <c r="M18">
+        <v>0.49572649572649569</v>
+      </c>
+      <c r="O18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>0.88319672131147542</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0.50877192982456143</v>
+      </c>
+      <c r="T18">
+        <v>0.5043478260869565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.86270491803278693</v>
+      </c>
+      <c r="D19">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="E19">
+        <v>0.73394495412844041</v>
+      </c>
+      <c r="F19">
+        <v>0.70484581497797361</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>0.87295081967213117</v>
+      </c>
+      <c r="K19">
+        <v>0.41269841269841268</v>
+      </c>
+      <c r="L19">
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="M19">
+        <v>0.45614035087719301</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>0.875</v>
+      </c>
+      <c r="R19">
+        <v>0.38095238095238088</v>
+      </c>
+      <c r="S19">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="T19">
+        <v>0.44036697247706419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>0.85450819672131151</v>
+      </c>
+      <c r="D20">
+        <v>0.65</v>
+      </c>
+      <c r="E20">
+        <v>0.54736842105263162</v>
+      </c>
+      <c r="F20">
+        <v>0.59428571428571431</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>0.86270491803278693</v>
+      </c>
+      <c r="K20">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="L20">
+        <v>0.73394495412844041</v>
+      </c>
+      <c r="M20">
+        <v>0.70484581497797361</v>
+      </c>
+      <c r="O20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20">
+        <v>0.85860655737704916</v>
+      </c>
+      <c r="R20">
+        <v>0.66949152542372881</v>
+      </c>
+      <c r="S20">
+        <v>0.72477064220183485</v>
+      </c>
+      <c r="T20">
+        <v>0.69603524229074898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.84221311475409832</v>
+      </c>
+      <c r="D21">
+        <v>0.65</v>
+      </c>
+      <c r="E21">
+        <v>0.51485148514851486</v>
+      </c>
+      <c r="F21">
+        <v>0.57458563535911611</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>0.85450819672131151</v>
+      </c>
+      <c r="K21">
+        <v>0.65</v>
+      </c>
+      <c r="L21">
+        <v>0.54736842105263162</v>
+      </c>
+      <c r="M21">
+        <v>0.59428571428571431</v>
+      </c>
+      <c r="O21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21">
+        <v>0.82377049180327866</v>
+      </c>
+      <c r="R21">
+        <v>0.625</v>
+      </c>
+      <c r="S21">
+        <v>0.47169811320754718</v>
+      </c>
+      <c r="T21">
+        <v>0.5376344086021505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.82991803278688525</v>
+      </c>
+      <c r="D22">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.48314606741573041</v>
+      </c>
+      <c r="F22">
+        <v>0.50887573964497046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>0.84836065573770492</v>
-      </c>
-      <c r="D18">
-        <v>0.61864406779661019</v>
-      </c>
-      <c r="E18">
-        <v>0.71568627450980393</v>
-      </c>
-      <c r="F18">
-        <v>0.66363636363636358</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>0.9651639344262295</v>
+      </c>
+      <c r="K31">
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="L31">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="M31">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="O31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31">
+        <v>0.96926229508196726</v>
+      </c>
+      <c r="R31">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="S31">
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="T31">
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>0.91598360655737709</v>
+      </c>
+      <c r="K32">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="L32">
+        <v>0.5625</v>
+      </c>
+      <c r="M32">
+        <v>0.56842105263157894</v>
+      </c>
+      <c r="O32" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32">
+        <v>0.92008196721311475</v>
+      </c>
+      <c r="R32">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="S32">
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="T32">
+        <v>0.58064516129032262</v>
+      </c>
+    </row>
+    <row r="33" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
         <v>6</v>
       </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>0.82991803278688525</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>0.93237704918032782</v>
+      </c>
+      <c r="K33">
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="L33">
+        <v>0.8</v>
+      </c>
+      <c r="M33">
+        <v>0.79503105590062106</v>
+      </c>
+      <c r="O33" t="s">
         <v>6</v>
       </c>
-      <c r="N18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18">
-        <v>0.82786885245901642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>0.83811475409836067</v>
-      </c>
-      <c r="D19">
-        <v>0.4375</v>
-      </c>
-      <c r="E19">
-        <v>0.50724637681159424</v>
-      </c>
-      <c r="F19">
-        <v>0.46979865771812079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="P33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33">
+        <v>0.91598360655737709</v>
+      </c>
+      <c r="R33">
+        <v>0.76543209876543206</v>
+      </c>
+      <c r="S33">
+        <v>0.73809523809523814</v>
+      </c>
+      <c r="T33">
+        <v>0.75151515151515147</v>
+      </c>
+    </row>
+    <row r="34" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>0.87295081967213117</v>
+      </c>
+      <c r="K34">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="L34">
+        <v>0.47058823529411759</v>
+      </c>
+      <c r="M34">
+        <v>0.50793650793650802</v>
+      </c>
+      <c r="O34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34">
+        <v>0.87909836065573765</v>
+      </c>
+      <c r="R34">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
+        <v>0.49152542372881358</v>
+      </c>
+      <c r="T34">
+        <v>0.49572649572649569</v>
+      </c>
+    </row>
+    <row r="35" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>0.88319672131147542</v>
+      </c>
+      <c r="K35">
+        <v>0.49206349206349198</v>
+      </c>
+      <c r="L35">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="M35">
+        <v>0.52100840336134457</v>
+      </c>
+      <c r="O35" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35">
+        <v>0.87295081967213117</v>
+      </c>
+      <c r="R35">
+        <v>0.41269841269841268</v>
+      </c>
+      <c r="S35">
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="T35">
+        <v>0.45614035087719301</v>
+      </c>
+    </row>
+    <row r="36" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36">
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="K36">
+        <v>0.66949152542372881</v>
+      </c>
+      <c r="L36">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="M36">
+        <v>0.73831775700934588</v>
+      </c>
+      <c r="O36" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36">
+        <v>0.86270491803278693</v>
+      </c>
+      <c r="R36">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="S36">
+        <v>0.73394495412844041</v>
+      </c>
+      <c r="T36">
+        <v>0.70484581497797361</v>
+      </c>
+    </row>
+    <row r="37" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>0.83401639344262291</v>
-      </c>
-      <c r="D20">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.49056603773584911</v>
-      </c>
-      <c r="F20">
-        <v>0.39097744360902248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0.81147540983606559</v>
-      </c>
-      <c r="D21">
-        <v>0.62903225806451613</v>
-      </c>
-      <c r="E21">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F21">
-        <v>0.45882352941176469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>0.80942622950819676</v>
-      </c>
-      <c r="D22">
-        <v>0.5625</v>
-      </c>
-      <c r="E22">
-        <v>0.43689320388349512</v>
-      </c>
-      <c r="F22">
-        <v>0.49180327868852453</v>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>0.84426229508196726</v>
+      </c>
+      <c r="K37">
+        <v>0.625</v>
+      </c>
+      <c r="L37">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M37">
+        <v>0.56818181818181812</v>
+      </c>
+      <c r="O37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q37">
+        <v>0.85450819672131151</v>
+      </c>
+      <c r="R37">
+        <v>0.65</v>
+      </c>
+      <c r="S37">
+        <v>0.54736842105263162</v>
+      </c>
+      <c r="T37">
+        <v>0.59428571428571431</v>
+      </c>
+    </row>
+    <row r="41" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1189,26 +1844,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="I1:K8"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,13 +1876,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1250,22 +1896,13 @@
       <c r="F2">
         <v>0.79999999999999993</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>0.9651639344262295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0.96311475409836067</v>
@@ -1279,22 +1916,13 @@
       <c r="F3">
         <v>0.78571428571428581</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>0.93237704918032782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>0.95696721311475408</v>
@@ -1308,19 +1936,10 @@
       <c r="F4">
         <v>0.75294117647058822</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>0.92213114754098358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1337,22 +1956,13 @@
       <c r="F5">
         <v>0.79503105590062106</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>0.88524590163934425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0.92213114754098358</v>
@@ -1366,22 +1976,13 @@
       <c r="F6">
         <v>0.57777777777777783</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>0.88319672131147542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0.91803278688524592</v>
@@ -1395,19 +1996,10 @@
       <c r="F7">
         <v>0.55555555555555547</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>0.87295081967213117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1424,22 +2016,13 @@
       <c r="F8">
         <v>0.56842105263157894</v>
       </c>
-      <c r="I8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>0.85040983606557374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0.90573770491803274</v>
@@ -1454,12 +2037,12 @@
         <v>0.72289156626506035</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
       </c>
       <c r="C10">
         <v>0.89344262295081966</v>
@@ -1474,9 +2057,9 @@
         <v>0.72340425531914887</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1494,9 +2077,9 @@
         <v>0.73831775700934588</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1514,9 +2097,9 @@
         <v>0.52100840336134457</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1534,12 +2117,12 @@
         <v>0.50793650793650802</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0.87295081967213117</v>
@@ -1554,12 +2137,12 @@
         <v>0.45614035087719301</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0.87295081967213117</v>
@@ -1574,12 +2157,12 @@
         <v>0.73504273504273498</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.86885245901639341</v>
@@ -1596,10 +2179,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0.86885245901639341</v>
@@ -1616,10 +2199,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0.85450819672131151</v>
@@ -1636,10 +2219,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0.85245901639344257</v>
@@ -1656,10 +2239,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>0.85040983606557374</v>
@@ -1676,7 +2259,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1696,10 +2279,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0.82991803278688525</v>
@@ -1726,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1737,12 +2320,9 @@
     <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,16 +2341,25 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>0.96311475409836067</v>
@@ -1784,19 +2373,24 @@
       <c r="F2">
         <v>0.76923076923076938</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="K2">
-        <v>0.96311475409836067</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1813,22 +2407,27 @@
       <c r="F3">
         <v>0.77108433734939763</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>0.92418032786885251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>0.95081967213114749</v>
@@ -1842,22 +2441,27 @@
       <c r="F4">
         <v>0.75510204081632648</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>0.91188524590163933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0.92418032786885251</v>
@@ -1871,19 +2475,22 @@
       <c r="F5">
         <v>0.77575757575757565</v>
       </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>0.88319672131147542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1900,19 +2507,22 @@
       <c r="F6">
         <v>0.75471698113207542</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>0.87909836065573765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1929,22 +2539,25 @@
       <c r="F7">
         <v>0.54736842105263162</v>
       </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0.9098360655737705</v>
@@ -1958,22 +2571,25 @@
       <c r="F8">
         <v>0.54166666666666674</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>0.82991803278688525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
       </c>
       <c r="C9">
         <v>0.90573770491803274</v>
@@ -1987,13 +2603,25 @@
       <c r="F9">
         <v>0.72289156626506035</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0.90368852459016391</v>
@@ -2007,13 +2635,25 @@
       <c r="F10">
         <v>0.5436893203883495</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0.88319672131147542</v>
@@ -2027,10 +2667,22 @@
       <c r="F11">
         <v>0.5043478260869565</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2047,13 +2699,25 @@
       <c r="F12">
         <v>0.72558139534883725</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0.875</v>
@@ -2067,13 +2731,26 @@
       <c r="F13">
         <v>0.68717948717948718</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0.875</v>
@@ -2087,10 +2764,11 @@
       <c r="F14">
         <v>0.44036697247706419</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2107,10 +2785,11 @@
       <c r="F15">
         <v>0.46280991735537191</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -2128,12 +2807,12 @@
         <v>0.49230769230769228</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0.85860655737704916</v>
@@ -2148,12 +2827,12 @@
         <v>0.69603524229074898</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0.85040983606557374</v>
@@ -2168,12 +2847,12 @@
         <v>0.42519685039370081</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0.83196721311475408</v>
@@ -2188,9 +2867,9 @@
         <v>0.37878787878787878</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2207,13 +2886,14 @@
       <c r="F20">
         <v>0.52023121387283244</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>0.82377049180327866</v>
@@ -2228,12 +2908,12 @@
         <v>0.5376344086021505</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>0.82172131147540983</v>
@@ -2260,26 +2940,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2301,10 +2981,13 @@
       <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2321,22 +3004,49 @@
       <c r="F2">
         <v>0.82926829268292679</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>0.97131147540983609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0.96926229508196726</v>
@@ -2351,21 +3061,48 @@
         <v>0.81481481481481488</v>
       </c>
       <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>0.9651639344262295</v>
+      </c>
+      <c r="L3">
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="M3">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="N3">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>0.97131147540983609</v>
+      </c>
+      <c r="S3">
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="T3">
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="U3">
+        <v>0.82926829268292679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>0.92008196721311475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>0.96106557377049184</v>
@@ -2380,21 +3117,48 @@
         <v>0.75949367088607589</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>0.91393442622950816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.91598360655737709</v>
+      </c>
+      <c r="L4">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="M4">
+        <v>0.5625</v>
+      </c>
+      <c r="N4">
+        <v>0.56842105263157894</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>0.90368852459016391</v>
+      </c>
+      <c r="S4">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5436893203883495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0.92008196721311475</v>
@@ -2409,18 +3173,45 @@
         <v>0.76363636363636378</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>0.88524590163934425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.93237704918032782</v>
+      </c>
+      <c r="L5">
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="M5">
+        <v>0.8</v>
+      </c>
+      <c r="N5">
+        <v>0.79503105590062106</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>0.91598360655737709</v>
+      </c>
+      <c r="S5">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="T5">
+        <v>0.75</v>
+      </c>
+      <c r="U5">
+        <v>0.74534161490683237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2438,21 +3229,48 @@
         <v>0.74534161490683237</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6">
-        <v>0.88319672131147542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.87295081967213117</v>
+      </c>
+      <c r="L6">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="M6">
+        <v>0.47058823529411759</v>
+      </c>
+      <c r="N6">
+        <v>0.50793650793650802</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>0.87090163934426235</v>
+      </c>
+      <c r="S6">
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="T6">
+        <v>0.46153846153846162</v>
+      </c>
+      <c r="U6">
+        <v>0.48780487804878048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0.91393442622950816</v>
@@ -2467,18 +3285,45 @@
         <v>0.55319148936170215</v>
       </c>
       <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>0.88319672131147542</v>
+      </c>
+      <c r="L7">
+        <v>0.49206349206349198</v>
+      </c>
+      <c r="M7">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="N7">
+        <v>0.52100840336134457</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>0.86885245901639341</v>
+      </c>
+      <c r="S7">
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="T7">
+        <v>0.49019607843137247</v>
+      </c>
+      <c r="U7">
+        <v>0.43859649122807021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>0.87909836065573765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2496,21 +3341,48 @@
         <v>0.5436893203883495</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8">
-        <v>0.82786885245901642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.88524590163934425</v>
+      </c>
+      <c r="L8">
+        <v>0.66949152542372881</v>
+      </c>
+      <c r="M8">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="N8">
+        <v>0.73831775700934588</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>0.88319672131147542</v>
+      </c>
+      <c r="S8">
+        <v>0.65254237288135597</v>
+      </c>
+      <c r="T8">
+        <v>0.82795698924731187</v>
+      </c>
+      <c r="U8">
+        <v>0.72985781990521337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0.90163934426229508</v>
@@ -2524,13 +3396,49 @@
       <c r="F9">
         <v>0.5471698113207546</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>0.84426229508196726</v>
+      </c>
+      <c r="L9">
+        <v>0.625</v>
+      </c>
+      <c r="M9">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="N9">
+        <v>0.56818181818181812</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>0.82786885245901642</v>
+      </c>
+      <c r="S9">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="T9">
+        <v>0.48039215686274511</v>
+      </c>
+      <c r="U9">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
       </c>
       <c r="C10">
         <v>0.89344262295081966</v>
@@ -2545,12 +3453,12 @@
         <v>0.72043010752688164</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0.88524590163934425</v>
@@ -2565,9 +3473,9 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2585,12 +3493,12 @@
         <v>0.72985781990521337</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0.88319672131147542</v>
@@ -2604,13 +3512,19 @@
       <c r="F13">
         <v>0.44660194174757278</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0.87909836065573765</v>
@@ -2624,50 +3538,158 @@
       <c r="F14">
         <v>0.47787610619469018</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0.87090163934426235</v>
       </c>
       <c r="D15">
-        <v>0.51724137931034486</v>
+        <v>0.68644067796610164</v>
       </c>
       <c r="E15">
-        <v>0.46153846153846162</v>
+        <v>0.7570093457943925</v>
       </c>
       <c r="F15">
-        <v>0.48780487804878048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>0.96926229508196726</v>
+      </c>
+      <c r="L15">
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="M15">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="N15">
+        <v>0.8192771084337348</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>0.96106557377049184</v>
+      </c>
+      <c r="S15">
+        <v>0.78048780487804881</v>
+      </c>
+      <c r="T15">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="U15">
+        <v>0.77108433734939763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>0.87090163934426235</v>
       </c>
       <c r="D16">
-        <v>0.68644067796610164</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="E16">
-        <v>0.7570093457943925</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="F16">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>0.9098360655737705</v>
+      </c>
+      <c r="L16">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="M16">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.52173913043478248</v>
+      </c>
+      <c r="P16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>0.91188524590163933</v>
+      </c>
+      <c r="S16">
+        <v>0.55319148936170215</v>
+      </c>
+      <c r="T16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="U16">
+        <v>0.54736842105263162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2684,13 +3706,49 @@
       <c r="F17">
         <v>0.43859649122807021</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>0.93032786885245899</v>
+      </c>
+      <c r="L17">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M17">
+        <v>0.79746835443037978</v>
+      </c>
+      <c r="N17">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="P17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>0.92008196721311475</v>
+      </c>
+      <c r="S17">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="T17">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="U17">
+        <v>0.75471698113207542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0.86475409836065575</v>
@@ -2704,13 +3762,49 @@
       <c r="F18">
         <v>0.41071428571428581</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>0.875</v>
+      </c>
+      <c r="L18">
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="M18">
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="N18">
+        <v>0.49586776859504128</v>
+      </c>
+      <c r="P18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18">
+        <v>0.86680327868852458</v>
+      </c>
+      <c r="S18">
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="T18">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="U18">
+        <v>0.46280991735537191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0.86270491803278693</v>
@@ -2724,10 +3818,46 @@
       <c r="F19">
         <v>0.70742358078602607</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>0.89959016393442626</v>
+      </c>
+      <c r="L19">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="M19">
+        <v>0.63461538461538458</v>
+      </c>
+      <c r="N19">
+        <v>0.57391304347826089</v>
+      </c>
+      <c r="P19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>0.86475409836065575</v>
+      </c>
+      <c r="S19">
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="T19">
+        <v>0.47761194029850751</v>
+      </c>
+      <c r="U19">
+        <v>0.49230769230769228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2744,13 +3874,49 @@
       <c r="F20">
         <v>0.53846153846153844</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>0.87704918032786883</v>
+      </c>
+      <c r="L20">
+        <v>0.69491525423728817</v>
+      </c>
+      <c r="M20">
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="N20">
+        <v>0.73214285714285732</v>
+      </c>
+      <c r="P20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>0.87909836065573765</v>
+      </c>
+      <c r="S20">
+        <v>0.66101694915254239</v>
+      </c>
+      <c r="T20">
+        <v>0.80412371134020622</v>
+      </c>
+      <c r="U20">
+        <v>0.72558139534883725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>0.81967213114754101</v>
@@ -2764,13 +3930,49 @@
       <c r="F21">
         <v>0.46987951807228923</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0.84221311475409832</v>
+      </c>
+      <c r="L21">
+        <v>0.65</v>
+      </c>
+      <c r="M21">
+        <v>0.51485148514851486</v>
+      </c>
+      <c r="N21">
+        <v>0.57458563535911611</v>
+      </c>
+      <c r="P21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>0.82991803278688525</v>
+      </c>
+      <c r="S21">
+        <v>0.5625</v>
+      </c>
+      <c r="T21">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="U21">
+        <v>0.52023121387283244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0.81352459016393441</v>
@@ -2788,7 +3990,8 @@
   </sheetData>
   <autoFilter ref="A1:F22" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-      <sortCondition descending="1" ref="C1:C22"/>
+      <sortCondition descending="1" ref="C2:C22"/>
+      <sortCondition ref="A2:A22" customList="Fees and Rates,Ease and Speed,General,Services,UI/UX and Usability,Reliability,Features and Promotion"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
